--- a/NBalanceGraphToolTips.xlsx
+++ b/NBalanceGraphToolTips.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\GitHubRepos\FieldNBalance\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F0FF4965-EA66-4FF0-8AB6-137F82F1C9CC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F04C297E-C515-441B-915C-C15E16843A91}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{F198C3CC-2397-4CCF-892A-27B60FF3695E}"/>
   </bookViews>
@@ -68,9 +68,6 @@
     <t>-</t>
   </si>
   <si>
-    <t>Nitrogen in crop product (including any potential field losses)</t>
-  </si>
-  <si>
     <t>Crop residues</t>
   </si>
   <si>
@@ -99,6 +96,9 @@
   </si>
   <si>
     <t>Adjustment for uncharacterised losses including percolation below 30 cm (which may still be available), gaseous emissions and over predictions in initial mineral, soil organic or residue inputs that would be needed to achieve the soil test value specified.</t>
+  </si>
+  <si>
+    <t>Nitrogen in crop product (including any potential paddock losses)</t>
   </si>
 </sst>
 </file>
@@ -494,7 +494,7 @@
   <dimension ref="A1:C8"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E4" sqref="E4"/>
+      <selection activeCell="C4" sqref="C4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -534,26 +534,26 @@
         <v>9</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>10</v>
+        <v>20</v>
       </c>
     </row>
     <row r="4" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="2" t="s">
+        <v>10</v>
+      </c>
+      <c r="B4" s="3" t="s">
         <v>11</v>
       </c>
-      <c r="B4" s="3" t="s">
+      <c r="C4" s="3" t="s">
         <v>12</v>
-      </c>
-      <c r="C4" s="3" t="s">
-        <v>13</v>
       </c>
     </row>
     <row r="5" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A5" s="2" t="s">
+        <v>13</v>
+      </c>
+      <c r="B5" s="3" t="s">
         <v>14</v>
-      </c>
-      <c r="B5" s="3" t="s">
-        <v>15</v>
       </c>
       <c r="C5" s="3" t="s">
         <v>9</v>
@@ -561,13 +561,13 @@
     </row>
     <row r="6" spans="1:3" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="2" t="s">
+        <v>15</v>
+      </c>
+      <c r="B6" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="3" t="s">
+      <c r="C6" s="3" t="s">
         <v>17</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>18</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
@@ -586,10 +586,10 @@
         <v>2</v>
       </c>
       <c r="B8" s="3" t="s">
+        <v>18</v>
+      </c>
+      <c r="C8" s="3" t="s">
         <v>19</v>
-      </c>
-      <c r="C8" s="3" t="s">
-        <v>20</v>
       </c>
     </row>
   </sheetData>
